--- a/Sensor/Voltage2/Voltage.xlsx
+++ b/Sensor/Voltage2/Voltage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\KiCad\Sensor\Voltage2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6666FBA-E506-4D84-84B5-F45E3964DE50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9516F8F6-C8A2-45CF-9285-598092FF7292}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="2100" windowWidth="16725" windowHeight="11505" xr2:uid="{3F8F7FF4-61E6-4EBD-A032-F961C5619D1E}"/>
+    <workbookView xWindow="465" yWindow="3285" windowWidth="16185" windowHeight="11505" xr2:uid="{3F8F7FF4-61E6-4EBD-A032-F961C5619D1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Vpeak</t>
   </si>
@@ -50,6 +58,69 @@
   </si>
   <si>
     <t>Rload</t>
+  </si>
+  <si>
+    <t>Vpp Out</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Actual Gain</t>
+  </si>
+  <si>
+    <t>Actual R2</t>
+  </si>
+  <si>
+    <t>Actual Vpp</t>
+  </si>
+  <si>
+    <t>1/2 Vpp AD Counts</t>
+  </si>
+  <si>
+    <t>AD Min</t>
+  </si>
+  <si>
+    <t>AD Max</t>
+  </si>
+  <si>
+    <t>vSum</t>
+  </si>
+  <si>
+    <t>cSum</t>
+  </si>
+  <si>
+    <t>pwrSum</t>
+  </si>
+  <si>
+    <t>samples</t>
+  </si>
+  <si>
+    <t>curScale</t>
+  </si>
+  <si>
+    <t>voltScale</t>
+  </si>
+  <si>
+    <t>pwrScale</t>
+  </si>
+  <si>
+    <t>vRms</t>
+  </si>
+  <si>
+    <t>cRms</t>
+  </si>
+  <si>
+    <t>aprntPwr</t>
+  </si>
+  <si>
+    <t>realPwr</t>
   </si>
 </sst>
 </file>
@@ -85,8 +156,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,65 +473,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23AB7D-A3FA-4B38-A81A-5E1D9DEF4E2C}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="E1">
         <f>Vpeak</f>
-        <v>353.55339059327378</v>
+        <v>176.77669529663689</v>
       </c>
       <c r="G1">
         <f>2*E1</f>
-        <v>707.10678118654755</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>353.55339059327378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>Vrms*SQRT(2)</f>
-        <v>353.55339059327378</v>
+        <v>176.77669529663689</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="E2">
         <f>2*Vrms/3</f>
-        <v>166.66666666666666</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="G2">
         <f>2*E2</f>
-        <v>333.33333333333331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166.66666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2*2</f>
-        <v>707.10678118654755</v>
+        <v>353.55339059327378</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="E3">
         <f>1*Vpeak/3</f>
-        <v>117.85113019775793</v>
+        <v>58.925565098878963</v>
       </c>
       <c r="G3">
         <f>2*E3</f>
-        <v>235.70226039551585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>117.85113019775793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2E-3</v>
       </c>
@@ -470,7 +547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -479,39 +556,308 @@
       </c>
       <c r="E5">
         <f>-1*Vpeak/3</f>
-        <v>-117.85113019775793</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-58.925565098878963</v>
+      </c>
+      <c r="H5">
+        <v>3300</v>
+      </c>
+      <c r="I5">
+        <v>3300</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>0.15118999999999999</v>
+      </c>
+      <c r="L5">
+        <f>H5*I5*J5*K5</f>
+        <v>49393773</v>
+      </c>
+      <c r="M5">
+        <f>L5/L6</f>
+        <v>2.9455363683935114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>Vrms/Irms</f>
-        <v>125000</v>
+        <v>62500</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="E6">
         <f>-2*Vpeak/3</f>
-        <v>-235.70226039551585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-117.85113019775793</v>
+      </c>
+      <c r="H6">
+        <v>4095</v>
+      </c>
+      <c r="I6">
+        <v>4095</v>
+      </c>
+      <c r="L6">
+        <f>H6*I6</f>
+        <v>16769025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>Res/6</f>
-        <v>20833.333333333332</v>
+        <v>10416.666666666666</v>
       </c>
       <c r="E7">
         <f>-Vpeak</f>
-        <v>-353.55339059327378</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-176.77669529663689</v>
+      </c>
+      <c r="J7">
+        <f>(H5/H6)*J5</f>
+        <v>24.175824175824175</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>Irms*Irms*A7</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J8">
+        <f>(I5/I6)*K5*10</f>
+        <v>1.2183809523809523</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f>J7*J8</f>
+        <v>29.455363683935111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>Irms*Rload</f>
+        <v>0.2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10*SQRT(2)*2</f>
+        <v>0.56568542494923812</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1040213285</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>4227944</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12/A11</f>
+        <v>4.4194173824159213</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>36844493</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>960</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>24000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>126.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>A15*A13</f>
+        <v>106066.01717798211</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>834</v>
+      </c>
+      <c r="J16">
+        <f>INT(SQRT(J11/J14)*J8)</f>
+        <v>1268</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <f>E15/E16</f>
+        <v>0.15119904076738608</v>
+      </c>
+      <c r="J17">
+        <f>INT(SQRT(J12/J14)*J7)</f>
+        <v>1604</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>A17/A15</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <f>J16*J17</f>
+        <v>2033872</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>A18*A11</f>
+        <v>2.3570226039551589</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>127.8</v>
+      </c>
+      <c r="J19" s="1">
+        <f>(J13/J14)*J9</f>
+        <v>1130487.4386095847</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>INT(4095*(A19/2)/3.3)</f>
+        <v>1462</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>16.027999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>2048-A20</f>
+        <v>586</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <f>G19*G20</f>
+        <v>2048.3783999999996</v>
+      </c>
+      <c r="J21">
+        <f>SQRT(J11)*SQRT(J12)</f>
+        <v>66317143.462577164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>2048+A20</f>
+        <v>3510</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <f>INT(SQRT(J11))*INT(SQRT(J12))</f>
+        <v>66310112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>A10*2*SQRT(2)</f>
+        <v>0.56568542494923812</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>A24*A26/A25</f>
+        <v>1.9327585352432304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>(A27/3.3)*4095</f>
+        <v>2398.377636915463</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>